--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Load Calcualtion_Basici_Data.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Load Calcualtion_Basici_Data.xlsx
@@ -1,22 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\Narail\2021_22\Bridges\Kalishankar Pur Khal Footoverbridge\Flexure Reinforcement Calcualtion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Flexure_Calcualtion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>b_total</t>
+  </si>
+  <si>
+    <t>Mcr</t>
+  </si>
+  <si>
+    <t>M_section_minimum</t>
+  </si>
+  <si>
+    <t>As(calcualted)</t>
+  </si>
+  <si>
+    <t>As_min</t>
+  </si>
+  <si>
+    <t>As_temp</t>
+  </si>
+  <si>
+    <t>As_provided</t>
+  </si>
+  <si>
+    <t>C/C Spacings</t>
+  </si>
+  <si>
+    <t>steel strain</t>
+  </si>
+  <si>
+    <t>Tension_conrolled</t>
+  </si>
+  <si>
+    <t>fs_actual</t>
+  </si>
+  <si>
+    <t>fs_allowable</t>
+  </si>
+  <si>
+    <t>Crack_control</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +128,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +458,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:W2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C2">
+        <v>51.5</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>25.4</v>
+      </c>
+      <c r="J2">
+        <v>0.9</v>
+      </c>
+      <c r="K2">
+        <v>189</v>
+      </c>
+      <c r="L2">
+        <v>151.28064000000001</v>
+      </c>
+      <c r="M2">
+        <v>91.238</v>
+      </c>
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.53</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <v>0.12296037735849059</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2">
+        <v>31.617836188311749</v>
+      </c>
+      <c r="V2">
+        <v>32.607380520266183</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C2" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>189</v>
+      </c>
+      <c r="L2" s="2">
+        <v>151.28064000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>91.238</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="R2" s="2">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.12296037735849059</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>31.617836188311749</v>
+      </c>
+      <c r="V2" s="2">
+        <v>32.607380520266183</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>